--- a/examples/sources/data/unsolved/to_schedule/2019-02-27.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-27.xlsx
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>43523</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>43523</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111" s="2">
         <v>43523</v>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" s="2">
         <v>43523</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <v>1</v>
